--- a/geo/seq_template_new.xlsx
+++ b/geo/seq_template_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellskr/Documents/Analysis/Mia_Smith/Smith_210825_b_cell_analysis/geo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C4A70-2D94-524B-A345-EBDF21FAF49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A5C1B-BAD6-2D4F-8B18-4726BAA7E9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47860" yWindow="2580" windowWidth="23340" windowHeight="15280" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47860" yWindow="2580" windowWidth="23340" windowHeight="15280" tabRatio="712" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Checklist" sheetId="12" r:id="rId1"/>
@@ -4197,7 +4197,7 @@
     <t>final_metadata.csv</t>
   </si>
   <si>
-    <t>6ebf817a53be8ea1b87b24752866973b</t>
+    <t>1a1ea623686879cfd05b7e3c21d16626</t>
   </si>
 </sst>
 </file>
@@ -4872,6 +4872,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -4885,18 +4897,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -6638,30 +6638,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -6756,79 +6756,79 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="64"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="69"/>
     </row>
     <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="63"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -7775,7 +7775,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7931,7 +7931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEF09D3-1EF4-451B-9716-D9A09736C051}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
